--- a/DOM_Banner/output/dept_banner/Arka Chatterjee_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Arka Chatterjee_2023.xlsx
@@ -1582,7 +1582,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2118908749", "https://openalex.org/W4287511585", "https://openalex.org/W3169301246", "https://openalex.org/W3093469178", "https://openalex.org/W4309033242", "https://openalex.org/W2104688623", "https://openalex.org/W2748952813", "https://openalex.org/W2899084033", "https://openalex.org/W4234956294", "https://openalex.org/W4247044552")</t>
+          <t>c("https://openalex.org/W4247044552", "https://openalex.org/W4234956294", "https://openalex.org/W2753164976", "https://openalex.org/W2256492013", "https://openalex.org/W3029655042", "https://openalex.org/W2158428798", "https://openalex.org/W2361848027", "https://openalex.org/W3158206585", "https://openalex.org/W2361967496", "https://openalex.org/W2331049654")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Arka Chatterjee_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Arka Chatterjee_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Surgery, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Surgery, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Artificial Heart Program, University of Arizona, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States; Cardiovascular Diseases, Spectrum Health, Grand Rapids, MI, United States; Division of Cardiology, Carondelet Medical Center, Tucson, AZ, United States; Division of Cardiology, Carondelet Medical Center, Tucson, AZ, United States; Division of Cardiovascular Diseases, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321596045</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Aortic valve disorders and left ventricular assist devices</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Frontiers in Cardiovascular Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2023.1098348</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36910539</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2023.1098348</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Epidemiology, School of Public Health, University of Alabama at Birmingham School of Public Health, Birmingham, AL, United States; Department of Research &amp; Evaluation, Kaiser Permanente Southern California, Pasadena, CA, United States; Department of Epidemiology, School of Public Health, University of Alabama at Birmingham School of Public Health, Birmingham, AL, United States; Department of Epidemiology, School of Public Health, University of Alabama at Birmingham School of Public Health, Birmingham, AL, United States; Division of Cardiovascular Disease, University of Alabama at Birmingham School of Medicine, Birmingham, AL, United States; Department of Medicine, Sarver Heart Center, University of Arizona Health Sciences, Tucson, AZ, United States; Division of Hematology and Oncology, University of Alabama at Birmingham School of Medicine, Birmingham, AL, United States; Department of Epidemiology, School of Public Health, University of Alabama at Birmingham School of Public Health, Birmingham, AL, United States; Department of Epidemiology, School of Public Health, University of Alabama at Birmingham School of Public Health, Birmingham, AL, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315641116</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Traditional risk factors and cancer-related factors associated with cardiovascular disease risk in head and neck cancer patients</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frontiers in Cardiovascular Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2022.1024846</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36712282</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcvm.2022.1024846</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Massoud A. Leesar, Salman Waheed, Firas Al Solaiman, Arka Chatterjee, Hussein Abu Daya, Fadi G. Hage, Brigitta C. Brott</t>
+          <t>Arka Chatterjee, Toshinobu Kazui, Deepak Acharya</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382364013</t>
+          <t>Division of Cardiology; Department of Cardiothoracic Surgery, University of Arizona College of Medicine, Tucson, AZ, USA; Division of Cardiology</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Randomized trial of an oblique versus standard fluoroscopic-guided micropuncture technique for femoral arterial access: The micropuncture-CFA trial</t>
+          <t>https://openalex.org/W4383621309</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Growing prevalence of aortic stenosis – Question of age or better recognition?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cardiovascular Revascularization Medicine</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>International Journal of Cardiology</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.carrev.2023.06.029</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.ijcard.2023.131155</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37414613</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.carrev.2023.06.029</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37429442</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ijcard.2023.131155</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arka Chatterjee, Toshinobu Kazui, Deepak Acharya</t>
+          <t>Massoud A. Leesar, Salman Waheed, Firas Al Solaiman, Arka Chatterjee, Hussein Abu Daya, Fadi G. Hage, Brigitta C. Brott</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383621309</t>
+          <t>Division of Cardiovascular Disease, University of Alabama, Birmingham, Birmingham Veterans Affairs Medical Center, United States of America; Division of Cardiology, University of Illinois, Chicago, IL, United States of America; Division of Cardiovascular Disease, University of Alabama, Birmingham, Birmingham Veterans Affairs Medical Center, United States of America; Division of Cardiovascular Disease, University of Alabama, Birmingham, Birmingham Veterans Affairs Medical Center, United States of America; Division of Cardiology, Banner-University Medical Center in Tucson, AZ, United States of America; Division of Cardiovascular Disease, University of Alabama, Birmingham, Birmingham Veterans Affairs Medical Center, United States of America; Division of Cardiovascular Disease, University of Alabama, Birmingham, Birmingham Veterans Affairs Medical Center, United States of America; Division of Cardiovascular Disease, University of Alabama, Birmingham, Birmingham Veterans Affairs Medical Center, United States of America; Division of Cardiovascular Disease, University of Alabama, Birmingham, Birmingham Veterans Affairs Medical Center, United States of America</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Growing prevalence of aortic stenosis – Question of age or better recognition?</t>
+          <t>https://openalex.org/W4382364013</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Randomized trial of an oblique versus standard fluoroscopic-guided micropuncture technique for femoral arterial access: The micropuncture-CFA trial</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>International Journal of Cardiology</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Cardiovascular Revascularization Medicine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ijcard.2023.131155</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.carrev.2023.06.029</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37429442</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijcard.2023.131155</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37414613</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.carrev.2023.06.029</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine; Department of Internal Medicine; Department of Internal Medicine; Division of Cardiothoracic Surgery; Division of Cardiology, Thomas Jefferson University, Philadelphia, Pennsylvania; Department of Internal Medicine; Division of Cardiovascular Diseases, University of Arizona, Tuscon, Arizona; Division of Cardiothoracic Surgery; Division of Cardiology, Thomas Jefferson University, Philadelphia, Pennsylvania</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385999322</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Aortic Valve Replacement in Patients With ESRD and Heart Failure With Reduced Ejection Fraction</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Cardiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjcard.2023.07.161</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37604063</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjcard.2023.07.161</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321368540</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>CRT-300.04 Short- and Long-Term Outcomes of Catheter-Based Therapies in Patients With Intermediate-/High-Risk Pulmonary Embolism – A Multicenter Retrospective Cohort Study</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>JACC: Cardiovascular Interventions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcin.2023.01.168</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jcin.2023.01.168</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mahima Zandu, Sangeetha Murugapandian, Shailendra Singh, Madhan Shanmugasundaram, Arka Chatterjee</t>
+          <t>Swati Chandra, Omar Meziab, Natalie E. Caryl, Andrew W. Hoyer, Arka Chatterjee, Michael D. Seckeler</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321368682</t>
+          <t>University of Arizona College of Medicine – Tucson, United States; The University of Arizona, United States; University of Arizona College of Medicine – Tucson, United States; The University of Arizona, United States; University of Arizona College of Medicine – Tucson, United States; The University of Arizona, United States</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CRT-700.23 Short- and Medium-Term Mortality in ESRD Patients Undergoing MitraClip Therapy – a Multicenter Retrospective Cohort Study</t>
+          <t>https://openalex.org/W4377103672</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>O-1 | 3D Printing of Patient-Specific Intravascular Stents for Congenital Heart Disease – Proof of Concept</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JACC: Cardiovascular Interventions</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Journal of the Society for Cardiovascular Angiography &amp; Interventions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jcin.2023.01.329</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.jscai.2023.100660</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jcin.2023.01.329</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jscai.2023.100660</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swati Chandra, Omar Meziab, Natalie E. Caryl, Andrew W. Hoyer, Arka Chatterjee, Michael D. Seckeler</t>
+          <t>Mahima Zandu, Sangeetha Murugapandian, Shailendra Singh, Madhan Shanmugasundaram, Arka Chatterjee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377103672</t>
+          <t>University of Arizona College of Medicine, Tucson, AZ; University of Arizona College of Medicine, Tucson, AZ; Division of Gastroenterology, West Virginia University, Morgantown, WV; University of Arizona College of Medicine, Tucson, AZ; University of Arizona College of Medicine, Tucson, AZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O-1 | 3D Printing of Patient-Specific Intravascular Stents for Congenital Heart Disease – Proof of Concept</t>
+          <t>https://openalex.org/W4387463022</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Short- and Medium-Term Mortality in ESRD Patients Undergoing MitraClip Therapy – a Multicenter Retrospective Cohort Study</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Journal of the Society for Cardiovascular Angiography &amp; Interventions</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Cardiovascular Revascularization Medicine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jscai.2023.100660</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1016/j.carrev.2023.05.283</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jscai.2023.100660</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.carrev.2023.05.283</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mahima Zandu, Sangeetha Murugapandian, Shailendra Singh, Madhan Shanmugasundaram, Arka Chatterjee</t>
+          <t>Mahima Zandu, Arka Chatterjee, Shailendra Singh, Madhan Shanmugasundaram</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387463022</t>
+          <t>University of Arizona College of Medicine, Tucson, AZ; University of Arizona College of Medicine, Tucson, AZ; Division of Gastroenterology West Virginia University, Morgantown, WV; University of Arizona College of Medicine, Tucson, AZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Short- and Medium-Term Mortality in ESRD Patients Undergoing MitraClip Therapy – a Multicenter Retrospective Cohort Study</t>
+          <t>https://openalex.org/W4387463134</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Short- and Long-Term Outcomes of Catheter-Based Therapies in Patients With Intermediate-/High-Risk Pulmonary Embolism – A Multicenter Retrospective Cohort Study</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Cardiovascular Revascularization Medicine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.carrev.2023.05.283</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.carrev.2023.05.146</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.carrev.2023.05.283</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.carrev.2023.05.146</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mahima Zandu, Arka Chatterjee, Shailendra Singh, Madhan Shanmugasundaram</t>
+          <t>Simar Singh, Vikram Singh, Mahima Zandu, Shailendra Singh, Arka Chatterjee, Madhan Shanmugasundaram</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387463134</t>
+          <t>University of Arizona College of Medicine, Tucson, Arizona, USA; University of Arizona College of Medicine, Tucson, Arizona, USA; University of Arizona College of Medicine, Tucson, Arizona, USA; West Virginia University School of Medicine, Morgantown, West Virginia, USA; Banner University Medical Center, Tucson, Arizona, USA; University of Arizona, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Short- and Long-Term Outcomes of Catheter-Based Therapies in Patients With Intermediate-/High-Risk Pulmonary Embolism – A Multicenter Retrospective Cohort Study</t>
+          <t>https://openalex.org/W4387710266</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>TCT-647 Outcomes of Patients Over 80 Years of Age Undergoing Left Atrial Appendage Occlusion: A Propensity-Matched Electronic Health Record Cohort Study</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cardiovascular Revascularization Medicine</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Journal of the American College of Cardiology</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.carrev.2023.05.146</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.jacc.2023.09.658</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.carrev.2023.05.146</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jacc.2023.09.658</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Simar Singh, Vikram Singh, Mahima Zandu, Shailendra Singh, Arka Chatterjee, Madhan Shanmugasundaram</t>
+          <t>Mahima Zandu, Sangeetha Murugapandian, Shailendra Singh, Madhan Shanmugasundaram, Arka Chatterjee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387710266</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TCT-647 Outcomes of Patients Over 80 Years of Age Undergoing Left Atrial Appendage Occlusion: A Propensity-Matched Electronic Health Record Cohort Study</t>
+          <t>https://openalex.org/W4321368682</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>CRT-700.23 Short- and Medium-Term Mortality in ESRD Patients Undergoing MitraClip Therapy – a Multicenter Retrospective Cohort Study</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>JACC: Cardiovascular Interventions</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jacc.2023.09.658</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.jcin.2023.01.329</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jacc.2023.09.658</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jcin.2023.01.329</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
